--- a/biology/Biochimie/Sidney_Altman/Sidney_Altman.xlsx
+++ b/biology/Biochimie/Sidney_Altman/Sidney_Altman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sidney Altman (né le 7 mai 1939[1] à Montréal et mort le 5 avril 2022 à Rockleigh[2]) est un biochimiste américain d'origine canadienne. 
-Il est colauréat avec Thomas Robert Cech du prix Nobel de chimie de 1989 pour « la découverte des propriétés catalytiques de l'ARN[3] ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sidney Altman (né le 7 mai 1939 à Montréal et mort le 5 avril 2022 à Rockleigh) est un biochimiste américain d'origine canadienne. 
+Il est colauréat avec Thomas Robert Cech du prix Nobel de chimie de 1989 pour « la découverte des propriétés catalytiques de l'ARN ».
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, Sidney Altman accepte un poste à la faculté de médecine de l'Université de Montréal et à l'Institut de recherches cliniques de Montréal[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, Sidney Altman accepte un poste à la faculté de médecine de l'Université de Montréal et à l'Institut de recherches cliniques de Montréal,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en-US) Altman, Sidney (2007), A view of RNase P.", Mol Biosyst 3 (9): 604–7, septembre 2007, doi:10.1039/b707850c, PMID 17700860, https://www.ncbi.nlm.nih.gov/pubmed/17700860
 (en-US) Altman, S.; Baer, M. F. ; Bartkiewicz, M. ; Gold, H. ; Guerrier-Takada, C. ; Kirsebom, LA ; Lumelsky, N.; Peck, K. (1989), Catalysis by the RNA subunit of RNase P--a minireview.", Gene 82 (1): 63–4, 15 octobre 1989, doi:10.1016/0378-1119(89)90030-9, PMID 2479591, https://www.ncbi.nlm.nih.gov/pubmed/2479591</t>
